--- a/BeispielFAQ-FrageAntwort.xlsx
+++ b/BeispielFAQ-FrageAntwort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/bennop_microsoft_com/Documents/Metafinanz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F333D05-3955-471C-BCD4-D34C519FFA45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{8F333D05-3955-471C-BCD4-D34C519FFA45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2043F6F-567C-48E5-958F-BD6F44B7679A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B861EBE-3989-463D-BA5A-11E2053781DD}"/>
   </bookViews>
@@ -34,306 +34,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
-  <si>
-    <t>Frage: Wie klassifiziere ich Bankkontonummern (DSGVO)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>Antwort: Vertraulich</t>
   </si>
   <si>
-    <t>Frage: Wie klassifiziere ich Belege und Zahlungsdaten (DSGVO)</t>
-  </si>
-  <si>
     <t>Antwort: Streng Vertraulich</t>
   </si>
   <si>
-    <t>Frage: Wie klassifiziere ich Aktuelle Systemkonfigurationsdaten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Daten- oder Software-Dateifreigaben</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Design- und Funktionsspezifikationen</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Zukünftige oder aktive Prozesse oder Prozeduren</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Zukünftige oder aktive Vertriebs- und Marketingpläne</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Betriebsanweisungen oder Handbücher</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Persönliche Beschäftigungsdaten (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Sensible persönliche Beschäftigungsdaten (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Hardware- oder Software-Token</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Private kryptografische Schlüssel</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Produktschlüssel (individuell)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Öffentliche kryptografische Schlüssel</t>
-  </si>
-  <si>
     <t>Antwort: öffentlich</t>
   </si>
   <si>
-    <t>Frage: Wie klassifiziere ich ACP E-Mails</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Durchgeführte Verträge - vertraulich</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Freigegebenes öffentliches Video</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Medienproduktmerkmale und Freigabezeitpläne</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Mediendateien für Vorabversionen und neue Produkte</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Video-Fallstudien oder interne Webcasts</t>
-  </si>
-  <si>
     <t>Antwort: Intern</t>
   </si>
   <si>
-    <t>Frage: Wie klassifiziere ich Angekündigte Finanzdaten des Unternehmens</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Vertraulicher Quellcode</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Quellcode mit hohem Risiko</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Wesentliche Finanzkennzahlen</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Betriebsgeheimnisse</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Offener Quellcode</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Öffentlich freigegebener Quellcode</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Unangekündigte Finanzdaten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Adresse (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Alter (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Biometrische Merkmale (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Vollständige Geo-Location-Tracking-Daten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kreditkarten- und Transaktionsinformationen (DSGVO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Informationen zur Anpassung (Customization) </t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich DNA-Sequenzen und -Proben (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich E-Mail Adresse (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Gesichtserkennungsmuster (DSGVO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Faxnummer </t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Finanzprofil (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Geschlecht (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Von der Regierung herausgegebene Informationen (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich IP-Adresse</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Microsoft Account ID (DSGVO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Name (Vor- und Nachname) (DSGVO) </t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Persönliche Identifikationsnummer (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Telefonnummer (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Geschützte Gesundheitsinformationen (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Geo-Standortdaten in Echtzeit (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Sozialversicherungsnummer (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Benutzername und Passwort (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Aufzeichnungen von Sprachbefehlen (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Postleitzahl (nicht mit einer Person verbunden)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Durchgeführte Verkaufsverträge</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Zahlungsdaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Belege </t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Vertriebskontodaten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Verkaufsnotizen über Kunden (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Zahlungsanweisungen</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Lieferantenverträge</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Leistungsdaten des Anbieters</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Daten mit fehlender Klassifizierung die als "vertraulich" gekennzeichnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Daten mit fehlender Klassifizierung und ohne Kennzeichnung </t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Zugriffskontrolldaten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kontodaten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Administrator-Daten (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kundeninhalte (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Identifizierbare Daten des Endbenutzers (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Identifizierbare Daten der Organisation/des Tenants</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich System Meta-Daten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Inhalt </t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Vertragsanhänge</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Geschützte Gesundheitsinformationen des Kunden</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Systemdiagnosedaten des Kunden</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Support-Tickets oder Hinweise auf Support oder Beratung (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Daten zur Authentifizierung (Berechtigung)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kundengesprächsaufzeichnungen oder Gesprächsprotokolle</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kundenkontaktdaten (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich E-Mail-Kopfzeilen</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Telemetrie-Daten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kontakte/Soziale Grafikdaten (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Daten zur Nutzung von Inhalten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kundenstandort (Breitengrad/Längengrad)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Daten von Drittanbietern </t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Abgeleitete Daten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Zahlungsinformationen</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Service-Nutzungsdaten</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kontaktinformationen (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Berechtigungsnachweise (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Demografische Daten (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Kommunikation, Dokumente und Medien (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich Sensordaten (DSGVO)</t>
-  </si>
-  <si>
-    <t>Frage: Wie klassifiziere ich E-Mails an Freunde (DSGVO)</t>
-  </si>
-  <si>
     <t>Antwort: keine</t>
   </si>
   <si>
-    <t>Frage: Wie klassifiziere ich Event Menü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Link zu einer Reiseseite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage: Wie klassifiziere ich Fußball-Spielplan </t>
+    <t>Frage:?</t>
+  </si>
+  <si>
+    <t>Antwort:</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Belege und Zahlungsdaten (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Aktuelle Systemkonfigurationsdaten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Daten- oder Software-Dateifreigaben?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Design- und Funktionsspezifikationen?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Zukünftige oder aktive Prozesse oder Prozeduren?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Zukünftige oder aktive Vertriebs- und Marketingpläne?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Betriebsanweisungen oder Handbücher?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Persönliche Beschäftigungsdaten (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Sensible persönliche Beschäftigungsdaten (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Hardware- oder Software-Token?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Private kryptografische Schlüssel?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Produktschlüssel (individuell)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Öffentliche kryptografische Schlüssel?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich ACP E-Mails?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Durchgeführte Verträge - vertraulich?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Freigegebenes öffentliches Video?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Medienproduktmerkmale und Freigabezeitpläne?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Mediendateien für Vorabversionen und neue Produkte?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Video-Fallstudien oder interne Webcasts?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Angekündigte Finanzdaten des Unternehmens?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Vertraulicher Quellcode?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Quellcode mit hohem Risiko?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Wesentliche Finanzkennzahlen?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Betriebsgeheimnisse?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Offener Quellcode?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Öffentlich freigegebener Quellcode?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Unangekündigte Finanzdaten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Adresse (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Alter (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Biometrische Merkmale (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Vollständige Geo-Location-Tracking-Daten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kreditkarten- und Transaktionsinformationen (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Informationen zur Anpassung (Customization) ?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich DNA-Sequenzen und -Proben (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich E-Mail Adresse (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Gesichtserkennungsmuster (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Faxnummer ?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Finanzprofil (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Geschlecht (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Von der Regierung herausgegebene Informationen (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich IP-Adresse?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Microsoft Account ID (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Name (Vor- und Nachname) (DSGVO) ?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Persönliche Identifikationsnummer (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Telefonnummer (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Geschützte Gesundheitsinformationen (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Geo-Standortdaten in Echtzeit (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Sozialversicherungsnummer (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Benutzername und Passwort (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Aufzeichnungen von Sprachbefehlen (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Postleitzahl (nicht mit einer Person verbunden)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Durchgeführte Verkaufsverträge?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Zahlungsdaten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Belege ?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Vertriebskontodaten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Verkaufsnotizen über Kunden (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Zahlungsanweisungen?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Lieferantenverträge?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Leistungsdaten des Anbieters?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Daten mit fehlender Klassifizierung die als "vertraulich" gekennzeichnet?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Daten mit fehlender Klassifizierung und ohne Kennzeichnung ?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Zugriffskontrolldaten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kontodaten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Administrator-Daten (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kundeninhalte (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Identifizierbare Daten des Endbenutzers (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Identifizierbare Daten der Organisation/des Tenants?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich System Meta-Daten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Inhalt ?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Vertragsanhänge?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Geschützte Gesundheitsinformationen des Kunden?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Systemdiagnosedaten des Kunden?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Support-Tickets oder Hinweise auf Support oder Beratung (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Daten zur Authentifizierung (Berechtigung)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kundengesprächsaufzeichnungen oder Gesprächsprotokolle?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kundenkontaktdaten (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich E-Mail-Kopfzeilen?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Telemetrie-Daten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kontakte/Soziale Grafikdaten (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Daten zur Nutzung von Inhalten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kundenstandort (Breitengrad/Längengrad)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Daten von Drittanbietern ?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Abgeleitete Daten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Zahlungsinformationen?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Service-Nutzungsdaten?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kontaktinformationen (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Berechtigungsnachweise (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Demografische Daten (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Kommunikation, Dokumente und Medien (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Sensordaten (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich E-Mails an Freunde (DSGVO)?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Event Menü?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Link zu einer Reiseseite ?</t>
+  </si>
+  <si>
+    <t>Frage: Wie klassifiziere ich Fußball-Spielplan ?</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -685,33 +691,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEEB36B-1307-43E8-8849-8C6A1CEFB396}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B96"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -719,23 +729,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -743,15 +753,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -759,39 +769,39 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -799,95 +809,95 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -895,31 +905,31 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -927,39 +937,39 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -967,15 +977,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -983,15 +993,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -999,15 +1009,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -1015,15 +1025,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -1031,31 +1041,31 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -1063,23 +1073,23 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1087,15 +1097,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -1103,31 +1113,31 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -1135,55 +1145,55 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -1191,15 +1201,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -1207,47 +1217,47 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -1255,31 +1265,31 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -1287,31 +1297,31 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -1319,71 +1329,71 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -1391,23 +1401,23 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -1415,50 +1425,58 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
